--- a/bbc_exploration/NEON_megapit_column_descriptions.xlsx
+++ b/bbc_exploration/NEON_megapit_column_descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmeier/Documents/gitRepositories/neon-plant-sampling/bbc_exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C31AD4ED-12C4-C147-97E2-127E9B40814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5374C3EB-49FF-6647-846A-4E404E8793FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25720" windowHeight="28300" xr2:uid="{F8C5C430-AE2B-424A-8F9E-D541F0E822A7}"/>
   </bookViews>
@@ -1062,8 +1062,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="89.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
